--- a/tabela1.xlsx
+++ b/tabela1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>TAREFA</t>
   </si>
@@ -46,16 +46,22 @@
     <t>T1</t>
   </si>
   <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>[R2,R1]</t>
-  </si>
-  <si>
     <t>T3</t>
+  </si>
+  <si>
+    <t>[R1, R3]</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
 </sst>
 </file>
@@ -63,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -111,18 +123,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -433,21 +451,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
@@ -484,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -492,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>15</v>
@@ -504,26 +522,46 @@
         <v>9</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
     </row>
